--- a/biology/Zoologie/Archicebus_achilles/Archicebus_achilles.xlsx
+++ b/biology/Zoologie/Archicebus_achilles/Archicebus_achilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Archicebus achilles (chinois : 阿喀琉斯基猴 ; pinyin : ākāliúsījīhóu[1]) est l'un des plus anciens primates connus, appartenant à l'infra-ordre des Tarsiiformes. Il vivait durant l’Éocène inférieur, il y a quelque 55 millions d'années, pesait à peine 30 grammes, tenait dans le creux d'une main humaine, avait une longue queue et des doigts osseux.
-Un squelette a été mis au jour en 2003, près de la ville-préfecture de Jingzhou, dans la province de Hubei, au centre de la Chine[2],[1], il est considéré comme étant le fossile de primate le plus ancien jamais retrouvé à ce jour[3],[4]. Il s'agit également du plus petit, puisqu'il mesurait deux centimètres de moins que le Microcèbe de Mme Berthe[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Archicebus achilles (chinois : 阿喀琉斯基猴 ; pinyin : ākāliúsījīhóu) est l'un des plus anciens primates connus, appartenant à l'infra-ordre des Tarsiiformes. Il vivait durant l’Éocène inférieur, il y a quelque 55 millions d'années, pesait à peine 30 grammes, tenait dans le creux d'une main humaine, avait une longue queue et des doigts osseux.
+Un squelette a été mis au jour en 2003, près de la ville-préfecture de Jingzhou, dans la province de Hubei, au centre de la Chine il est considéré comme étant le fossile de primate le plus ancien jamais retrouvé à ce jour,. Il s'agit également du plus petit, puisqu'il mesurait deux centimètres de moins que le Microcèbe de Mme Berthe.
 </t>
         </is>
       </c>
